--- a/myapp/files/32_Streumaße/Streumaße.xlsx
+++ b/myapp/files/32_Streumaße/Streumaße.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t xml:space="preserve">graphic_SD_Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classic_median_Occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classic_median_Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic_median_Occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic_median_Impact</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -908,13 +920,25 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>0.375536480686695</v>
@@ -934,13 +958,25 @@
       <c r="H2" t="n">
         <v>23.1442282103163</v>
       </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>55.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>0.199775764232107</v>
@@ -960,13 +996,25 @@
       <c r="H3" t="n">
         <v>22.6184688886277</v>
       </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>70</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>60.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>0.252640036730946</v>
@@ -986,13 +1034,25 @@
       <c r="H4" t="n">
         <v>21.9390290798741</v>
       </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>70</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46.125</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>0.23970695970696</v>
@@ -1012,13 +1072,25 @@
       <c r="H5" t="n">
         <v>22.8037820455115</v>
       </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
+        <v>70</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>0.384171198192875</v>
@@ -1038,13 +1110,25 @@
       <c r="H6" t="n">
         <v>23.4783664161269</v>
       </c>
+      <c r="I6" t="n">
+        <v>70</v>
+      </c>
+      <c r="J6" t="n">
+        <v>70</v>
+      </c>
+      <c r="K6" t="n">
+        <v>59.125</v>
+      </c>
+      <c r="L6" t="n">
+        <v>52.75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
         <v>0.300883883024395</v>
@@ -1064,13 +1148,25 @@
       <c r="H7" t="n">
         <v>23.5877495390018</v>
       </c>
+      <c r="I7" t="n">
+        <v>70</v>
+      </c>
+      <c r="J7" t="n">
+        <v>50</v>
+      </c>
+      <c r="K7" t="n">
+        <v>67.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>45.25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>0.297661514070551</v>
@@ -1090,13 +1186,25 @@
       <c r="H8" t="n">
         <v>23.8076238514344</v>
       </c>
+      <c r="I8" t="n">
+        <v>70</v>
+      </c>
+      <c r="J8" t="n">
+        <v>70</v>
+      </c>
+      <c r="K8" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>72.375</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>0.259086983827916</v>
@@ -1116,13 +1224,25 @@
       <c r="H9" t="n">
         <v>23.0304525060643</v>
       </c>
+      <c r="I9" t="n">
+        <v>70</v>
+      </c>
+      <c r="J9" t="n">
+        <v>70</v>
+      </c>
+      <c r="K9" t="n">
+        <v>52</v>
+      </c>
+      <c r="L9" t="n">
+        <v>60.375</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>0.243479993623466</v>
@@ -1142,13 +1262,25 @@
       <c r="H10" t="n">
         <v>23.2007493342293</v>
       </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="n">
+        <v>70</v>
+      </c>
+      <c r="K10" t="n">
+        <v>43.125</v>
+      </c>
+      <c r="L10" t="n">
+        <v>66.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
         <v>0.361771498437712</v>
@@ -1168,13 +1300,25 @@
       <c r="H11" t="n">
         <v>23.2579554736746</v>
       </c>
+      <c r="I11" t="n">
+        <v>70</v>
+      </c>
+      <c r="J11" t="n">
+        <v>70</v>
+      </c>
+      <c r="K11" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
         <v>0.228850811877635</v>
@@ -1194,13 +1338,25 @@
       <c r="H12" t="n">
         <v>24.8720515872929</v>
       </c>
+      <c r="I12" t="n">
+        <v>70</v>
+      </c>
+      <c r="J12" t="n">
+        <v>70</v>
+      </c>
+      <c r="K12" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>65.125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
         <v>0.238159371492705</v>
@@ -1220,13 +1376,25 @@
       <c r="H13" t="n">
         <v>21.5087913318452</v>
       </c>
+      <c r="I13" t="n">
+        <v>70</v>
+      </c>
+      <c r="J13" t="n">
+        <v>70</v>
+      </c>
+      <c r="K13" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>72.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
         <v>0.287620459599704</v>
@@ -1246,13 +1414,25 @@
       <c r="H14" t="n">
         <v>21.2531877196739</v>
       </c>
+      <c r="I14" t="n">
+        <v>70</v>
+      </c>
+      <c r="J14" t="n">
+        <v>70</v>
+      </c>
+      <c r="K14" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
         <v>0.337847362062022</v>
@@ -1272,13 +1452,25 @@
       <c r="H15" t="n">
         <v>22.5186282247504</v>
       </c>
+      <c r="I15" t="n">
+        <v>70</v>
+      </c>
+      <c r="J15" t="n">
+        <v>70</v>
+      </c>
+      <c r="K15" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
         <v>0.30328575534055</v>
@@ -1298,13 +1490,25 @@
       <c r="H16" t="n">
         <v>20.55757139306</v>
       </c>
+      <c r="I16" t="n">
+        <v>70</v>
+      </c>
+      <c r="J16" t="n">
+        <v>70</v>
+      </c>
+      <c r="K16" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n">
         <v>0.239612188365651</v>
@@ -1324,13 +1528,25 @@
       <c r="H17" t="n">
         <v>21.7017778578776</v>
       </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="n">
+        <v>50</v>
+      </c>
+      <c r="K17" t="n">
+        <v>51</v>
+      </c>
+      <c r="L17" t="n">
+        <v>59.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C18" t="n">
         <v>0.240196078431373</v>
@@ -1350,13 +1566,25 @@
       <c r="H18" t="n">
         <v>22.695358050567</v>
       </c>
+      <c r="I18" t="n">
+        <v>70</v>
+      </c>
+      <c r="J18" t="n">
+        <v>70</v>
+      </c>
+      <c r="K18" t="n">
+        <v>63.375</v>
+      </c>
+      <c r="L18" t="n">
+        <v>63.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
         <v>0.20009328358209</v>
@@ -1376,13 +1604,25 @@
       <c r="H19" t="n">
         <v>24.6273031418743</v>
       </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="n">
+        <v>50</v>
+      </c>
+      <c r="K19" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
         <v>0.260722989123241</v>
@@ -1402,13 +1642,25 @@
       <c r="H20" t="n">
         <v>21.6672399710448</v>
       </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K20" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>60.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
         <v>0.279134717555498</v>
@@ -1428,13 +1680,25 @@
       <c r="H21" t="n">
         <v>22.5139474068597</v>
       </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="n">
+        <v>70</v>
+      </c>
+      <c r="K21" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>0.250129285431813</v>
@@ -1454,13 +1718,25 @@
       <c r="H22" t="n">
         <v>21.3140136534743</v>
       </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="n">
+        <v>70</v>
+      </c>
+      <c r="K22" t="n">
+        <v>45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>0.257091385522437</v>
@@ -1480,13 +1756,25 @@
       <c r="H23" t="n">
         <v>23.8975472844129</v>
       </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="n">
+        <v>70</v>
+      </c>
+      <c r="K23" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>60.875</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C24" t="n">
         <v>0.272531357286108</v>
@@ -1506,13 +1794,25 @@
       <c r="H24" t="n">
         <v>21.8349778361684</v>
       </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="n">
+        <v>70</v>
+      </c>
+      <c r="K24" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>68.75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C25" t="n">
         <v>0.289186228482003</v>
@@ -1532,13 +1832,25 @@
       <c r="H25" t="n">
         <v>22.335272223265</v>
       </c>
+      <c r="I25" t="n">
+        <v>70</v>
+      </c>
+      <c r="J25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" t="n">
+        <v>58</v>
+      </c>
+      <c r="L25" t="n">
+        <v>57.125</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
         <v>0.296526638721827</v>
@@ -1558,13 +1870,25 @@
       <c r="H26" t="n">
         <v>24.2700383997491</v>
       </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="n">
+        <v>70</v>
+      </c>
+      <c r="K26" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>65.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" t="n">
         <v>0.292085227226361</v>
@@ -1584,13 +1908,25 @@
       <c r="H27" t="n">
         <v>24.2815983812656</v>
       </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="n">
+        <v>70</v>
+      </c>
+      <c r="K27" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>67.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C28" t="n">
         <v>0.295297339593114</v>
@@ -1610,13 +1946,25 @@
       <c r="H28" t="n">
         <v>20.7821120637295</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>70</v>
+      </c>
+      <c r="K28" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>64.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C29" t="n">
         <v>0.303814438205089</v>
@@ -1636,13 +1984,25 @@
       <c r="H29" t="n">
         <v>24.1890177318529</v>
       </c>
+      <c r="I29" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" t="n">
+        <v>70</v>
+      </c>
+      <c r="K29" t="n">
+        <v>37.375</v>
+      </c>
+      <c r="L29" t="n">
+        <v>54.75</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C30" t="n">
         <v>0.387507840612723</v>
@@ -1662,13 +2022,25 @@
       <c r="H30" t="n">
         <v>22.8697325585282</v>
       </c>
+      <c r="I30" t="n">
+        <v>70</v>
+      </c>
+      <c r="J30" t="n">
+        <v>70</v>
+      </c>
+      <c r="K30" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>58.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C31" t="n">
         <v>0.272110443996913</v>
@@ -1688,13 +2060,25 @@
       <c r="H31" t="n">
         <v>25.7870558708881</v>
       </c>
+      <c r="I31" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" t="n">
+        <v>70</v>
+      </c>
+      <c r="K31" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>63.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C32" t="n">
         <v>0.332535339717282</v>
@@ -1714,13 +2098,25 @@
       <c r="H32" t="n">
         <v>24.1706828481951</v>
       </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>90</v>
+      </c>
+      <c r="K32" t="n">
+        <v>37</v>
+      </c>
+      <c r="L32" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C33" t="n">
         <v>0.339563054293749</v>
@@ -1740,13 +2136,25 @@
       <c r="H33" t="n">
         <v>24.1366926771242</v>
       </c>
+      <c r="I33" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" t="n">
+        <v>60</v>
+      </c>
+      <c r="K33" t="n">
+        <v>37</v>
+      </c>
+      <c r="L33" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C34" t="n">
         <v>0.341227058371193</v>
@@ -1766,13 +2174,25 @@
       <c r="H34" t="n">
         <v>22.2300799023895</v>
       </c>
+      <c r="I34" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" t="n">
+        <v>70</v>
+      </c>
+      <c r="K34" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="L34" t="n">
+        <v>67.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C35" t="n">
         <v>0.259948827378364</v>
@@ -1792,13 +2212,25 @@
       <c r="H35" t="n">
         <v>22.3601323668895</v>
       </c>
+      <c r="I35" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" t="n">
+        <v>50</v>
+      </c>
+      <c r="K35" t="n">
+        <v>47</v>
+      </c>
+      <c r="L35" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C36" t="n">
         <v>0.235700526518557</v>
@@ -1818,13 +2250,25 @@
       <c r="H36" t="n">
         <v>20.5238047327659</v>
       </c>
+      <c r="I36" t="n">
+        <v>30</v>
+      </c>
+      <c r="J36" t="n">
+        <v>50</v>
+      </c>
+      <c r="K36" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="L36" t="n">
+        <v>58.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" t="n">
         <v>0.360210584649487</v>
@@ -1844,13 +2288,25 @@
       <c r="H37" t="n">
         <v>23.587252098727</v>
       </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>70</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35.375</v>
+      </c>
+      <c r="L37" t="n">
+        <v>72.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C38" t="n">
         <v>0.275105977305122</v>
@@ -1870,13 +2326,25 @@
       <c r="H38" t="n">
         <v>21.7313284621793</v>
       </c>
+      <c r="I38" t="n">
+        <v>70</v>
+      </c>
+      <c r="J38" t="n">
+        <v>70</v>
+      </c>
+      <c r="K38" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C39" t="n">
         <v>0.329751110790016</v>
@@ -1896,13 +2364,25 @@
       <c r="H39" t="n">
         <v>22.3458569939203</v>
       </c>
+      <c r="I39" t="n">
+        <v>50</v>
+      </c>
+      <c r="J39" t="n">
+        <v>70</v>
+      </c>
+      <c r="K39" t="n">
+        <v>46</v>
+      </c>
+      <c r="L39" t="n">
+        <v>70.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C40" t="n">
         <v>0.328480907266369</v>
@@ -1922,13 +2402,25 @@
       <c r="H40" t="n">
         <v>20.6195573464216</v>
       </c>
+      <c r="I40" t="n">
+        <v>70</v>
+      </c>
+      <c r="J40" t="n">
+        <v>70</v>
+      </c>
+      <c r="K40" t="n">
+        <v>71</v>
+      </c>
+      <c r="L40" t="n">
+        <v>70.25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C41" t="n">
         <v>0.265832319824238</v>
@@ -1948,13 +2440,25 @@
       <c r="H41" t="n">
         <v>23.0835951945481</v>
       </c>
+      <c r="I41" t="n">
+        <v>50</v>
+      </c>
+      <c r="J41" t="n">
+        <v>70</v>
+      </c>
+      <c r="K41" t="n">
+        <v>53</v>
+      </c>
+      <c r="L41" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C42" t="n">
         <v>0.286990732645567</v>
@@ -1974,13 +2478,25 @@
       <c r="H42" t="n">
         <v>20.9543695661801</v>
       </c>
+      <c r="I42" t="n">
+        <v>70</v>
+      </c>
+      <c r="J42" t="n">
+        <v>70</v>
+      </c>
+      <c r="K42" t="n">
+        <v>55</v>
+      </c>
+      <c r="L42" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C43" t="n">
         <v>0.320285160891291</v>
@@ -2000,13 +2516,25 @@
       <c r="H43" t="n">
         <v>22.2571865410601</v>
       </c>
+      <c r="I43" t="n">
+        <v>70</v>
+      </c>
+      <c r="J43" t="n">
+        <v>70</v>
+      </c>
+      <c r="K43" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="L43" t="n">
+        <v>66.25</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C44" t="n">
         <v>0.31477435530086</v>
@@ -2026,13 +2554,25 @@
       <c r="H44" t="n">
         <v>21.6515684556569</v>
       </c>
+      <c r="I44" t="n">
+        <v>70</v>
+      </c>
+      <c r="J44" t="n">
+        <v>70</v>
+      </c>
+      <c r="K44" t="n">
+        <v>62</v>
+      </c>
+      <c r="L44" t="n">
+        <v>67.75</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C45" t="n">
         <v>0.440596907587199</v>
@@ -2052,13 +2592,25 @@
       <c r="H45" t="n">
         <v>23.0274974823775</v>
       </c>
+      <c r="I45" t="n">
+        <v>50</v>
+      </c>
+      <c r="J45" t="n">
+        <v>70</v>
+      </c>
+      <c r="K45" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="L45" t="n">
+        <v>65.75</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C46" t="n">
         <v>0.293421062370016</v>
@@ -2078,13 +2630,25 @@
       <c r="H46" t="n">
         <v>21.2750274409556</v>
       </c>
+      <c r="I46" t="n">
+        <v>70</v>
+      </c>
+      <c r="J46" t="n">
+        <v>70</v>
+      </c>
+      <c r="K46" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>75.75</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C47" t="n">
         <v>0.320577038669605</v>
@@ -2104,13 +2668,25 @@
       <c r="H47" t="n">
         <v>21.7881859340011</v>
       </c>
+      <c r="I47" t="n">
+        <v>70</v>
+      </c>
+      <c r="J47" t="n">
+        <v>70</v>
+      </c>
+      <c r="K47" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="L47" t="n">
+        <v>58.25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C48" t="n">
         <v>0.307325789160214</v>
@@ -2130,13 +2706,25 @@
       <c r="H48" t="n">
         <v>20.63873486204</v>
       </c>
+      <c r="I48" t="n">
+        <v>50</v>
+      </c>
+      <c r="J48" t="n">
+        <v>50</v>
+      </c>
+      <c r="K48" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="L48" t="n">
+        <v>59.75</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C49" t="n">
         <v>0.309364192604416</v>
@@ -2156,13 +2744,25 @@
       <c r="H49" t="n">
         <v>21.1649067203814</v>
       </c>
+      <c r="I49" t="n">
+        <v>50</v>
+      </c>
+      <c r="J49" t="n">
+        <v>70</v>
+      </c>
+      <c r="K49" t="n">
+        <v>48</v>
+      </c>
+      <c r="L49" t="n">
+        <v>61.25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C50" t="n">
         <v>0.271650473791532</v>
@@ -2182,13 +2782,25 @@
       <c r="H50" t="n">
         <v>20.9062929772598</v>
       </c>
+      <c r="I50" t="n">
+        <v>50</v>
+      </c>
+      <c r="J50" t="n">
+        <v>70</v>
+      </c>
+      <c r="K50" t="n">
+        <v>45</v>
+      </c>
+      <c r="L50" t="n">
+        <v>60.75</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C51" t="n">
         <v>0.283722611077298</v>
@@ -2208,13 +2820,25 @@
       <c r="H51" t="n">
         <v>22.2347561718565</v>
       </c>
+      <c r="I51" t="n">
+        <v>50</v>
+      </c>
+      <c r="J51" t="n">
+        <v>70</v>
+      </c>
+      <c r="K51" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C52" t="n">
         <v>0.308981770433656</v>
@@ -2234,13 +2858,25 @@
       <c r="H52" t="n">
         <v>22.2977118055962</v>
       </c>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+      <c r="J52" t="n">
+        <v>70</v>
+      </c>
+      <c r="K52" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="L52" t="n">
+        <v>68.75</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C53" t="n">
         <v>0.314032643312102</v>
@@ -2260,13 +2896,25 @@
       <c r="H53" t="n">
         <v>20.4345287851502</v>
       </c>
+      <c r="I53" t="n">
+        <v>70</v>
+      </c>
+      <c r="J53" t="n">
+        <v>70</v>
+      </c>
+      <c r="K53" t="n">
+        <v>65.875</v>
+      </c>
+      <c r="L53" t="n">
+        <v>66.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C54" t="n">
         <v>0.313647935988362</v>
@@ -2286,13 +2934,25 @@
       <c r="H54" t="n">
         <v>21.9987546966843</v>
       </c>
+      <c r="I54" t="n">
+        <v>50</v>
+      </c>
+      <c r="J54" t="n">
+        <v>70</v>
+      </c>
+      <c r="K54" t="n">
+        <v>40</v>
+      </c>
+      <c r="L54" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C55" t="n">
         <v>0.278736943409689</v>
@@ -2312,13 +2972,25 @@
       <c r="H55" t="n">
         <v>21.0153342312289</v>
       </c>
+      <c r="I55" t="n">
+        <v>50</v>
+      </c>
+      <c r="J55" t="n">
+        <v>70</v>
+      </c>
+      <c r="K55" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="L55" t="n">
+        <v>60.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C56" t="n">
         <v>0.311849957374254</v>
@@ -2338,13 +3010,25 @@
       <c r="H56" t="n">
         <v>21.3641444507191</v>
       </c>
+      <c r="I56" t="n">
+        <v>70</v>
+      </c>
+      <c r="J56" t="n">
+        <v>70</v>
+      </c>
+      <c r="K56" t="n">
+        <v>64.625</v>
+      </c>
+      <c r="L56" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C57" t="n">
         <v>0.410263001462012</v>
@@ -2364,13 +3048,25 @@
       <c r="H57" t="n">
         <v>20.9461181132677</v>
       </c>
+      <c r="I57" t="n">
+        <v>70</v>
+      </c>
+      <c r="J57" t="n">
+        <v>70</v>
+      </c>
+      <c r="K57" t="n">
+        <v>67.25</v>
+      </c>
+      <c r="L57" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C58" t="n">
         <v>0.335733695652174</v>
@@ -2390,13 +3086,25 @@
       <c r="H58" t="n">
         <v>19.4114833217089</v>
       </c>
+      <c r="I58" t="n">
+        <v>70</v>
+      </c>
+      <c r="J58" t="n">
+        <v>70</v>
+      </c>
+      <c r="K58" t="n">
+        <v>50</v>
+      </c>
+      <c r="L58" t="n">
+        <v>63.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C59" t="n">
         <v>0.330641733956651</v>
@@ -2416,13 +3124,25 @@
       <c r="H59" t="n">
         <v>20.9355288716697</v>
       </c>
+      <c r="I59" t="n">
+        <v>50</v>
+      </c>
+      <c r="J59" t="n">
+        <v>70</v>
+      </c>
+      <c r="K59" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>63.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C60" t="n">
         <v>0.251097630063261</v>
@@ -2442,13 +3162,25 @@
       <c r="H60" t="n">
         <v>22.1440588321034</v>
       </c>
+      <c r="I60" t="n">
+        <v>50</v>
+      </c>
+      <c r="J60" t="n">
+        <v>70</v>
+      </c>
+      <c r="K60" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="L60" t="n">
+        <v>59.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C61" t="n">
         <v>0.296804735806633</v>
@@ -2468,13 +3200,25 @@
       <c r="H61" t="n">
         <v>20.8428140920198</v>
       </c>
+      <c r="I61" t="n">
+        <v>50</v>
+      </c>
+      <c r="J61" t="n">
+        <v>70</v>
+      </c>
+      <c r="K61" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>63.25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C62" t="n">
         <v>0.301508599014382</v>
@@ -2494,13 +3238,25 @@
       <c r="H62" t="n">
         <v>21.5489285597602</v>
       </c>
+      <c r="I62" t="n">
+        <v>50</v>
+      </c>
+      <c r="J62" t="n">
+        <v>70</v>
+      </c>
+      <c r="K62" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>65.75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C63" t="n">
         <v>0.319348429026783</v>
@@ -2520,13 +3276,25 @@
       <c r="H63" t="n">
         <v>21.0667903460355</v>
       </c>
+      <c r="I63" t="n">
+        <v>50</v>
+      </c>
+      <c r="J63" t="n">
+        <v>70</v>
+      </c>
+      <c r="K63" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="L63" t="n">
+        <v>70.875</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C64" t="n">
         <v>0.32163345410628</v>
@@ -2546,13 +3314,25 @@
       <c r="H64" t="n">
         <v>21.4299890208168</v>
       </c>
+      <c r="I64" t="n">
+        <v>70</v>
+      </c>
+      <c r="J64" t="n">
+        <v>50</v>
+      </c>
+      <c r="K64" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="L64" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C65" t="n">
         <v>0.270846946468962</v>
@@ -2572,13 +3352,25 @@
       <c r="H65" t="n">
         <v>21.1397406299118</v>
       </c>
+      <c r="I65" t="n">
+        <v>50</v>
+      </c>
+      <c r="J65" t="n">
+        <v>50</v>
+      </c>
+      <c r="K65" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="L65" t="n">
+        <v>58.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C66" t="n">
         <v>0.349305978422096</v>
@@ -2598,13 +3390,25 @@
       <c r="H66" t="n">
         <v>21.4917977222189</v>
       </c>
+      <c r="I66" t="n">
+        <v>70</v>
+      </c>
+      <c r="J66" t="n">
+        <v>50</v>
+      </c>
+      <c r="K66" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>53.75</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C67" t="n">
         <v>0.362328477301578</v>
@@ -2624,13 +3428,25 @@
       <c r="H67" t="n">
         <v>20.2596314122341</v>
       </c>
+      <c r="I67" t="n">
+        <v>70</v>
+      </c>
+      <c r="J67" t="n">
+        <v>90</v>
+      </c>
+      <c r="K67" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C68" t="n">
         <v>0.253976135547645</v>
@@ -2650,13 +3466,25 @@
       <c r="H68" t="n">
         <v>21.2315719382625</v>
       </c>
+      <c r="I68" t="n">
+        <v>70</v>
+      </c>
+      <c r="J68" t="n">
+        <v>50</v>
+      </c>
+      <c r="K68" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="L68" t="n">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C69" t="n">
         <v>0.284981951648618</v>
@@ -2676,13 +3504,25 @@
       <c r="H69" t="n">
         <v>22.9670058093385</v>
       </c>
+      <c r="I69" t="n">
+        <v>50</v>
+      </c>
+      <c r="J69" t="n">
+        <v>50</v>
+      </c>
+      <c r="K69" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="L69" t="n">
+        <v>56.625</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C70" t="n">
         <v>0.322213996121981</v>
@@ -2702,13 +3542,25 @@
       <c r="H70" t="n">
         <v>20.8261639120631</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>50</v>
+      </c>
+      <c r="K70" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="L70" t="n">
+        <v>56.25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C71" t="n">
         <v>0.274143302180685</v>
@@ -2728,13 +3580,25 @@
       <c r="H71" t="n">
         <v>20.6948484150707</v>
       </c>
+      <c r="I71" t="n">
+        <v>70</v>
+      </c>
+      <c r="J71" t="n">
+        <v>50</v>
+      </c>
+      <c r="K71" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L71" t="n">
+        <v>56.75</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C72" t="n">
         <v>0.401849986128754</v>
@@ -2754,13 +3618,25 @@
       <c r="H72" t="n">
         <v>22.437759017682</v>
       </c>
+      <c r="I72" t="n">
+        <v>50</v>
+      </c>
+      <c r="J72" t="n">
+        <v>50</v>
+      </c>
+      <c r="K72" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="L72" t="n">
+        <v>55.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C73" t="n">
         <v>0.268162393162393</v>
@@ -2780,13 +3656,25 @@
       <c r="H73" t="n">
         <v>20.5287489873244</v>
       </c>
+      <c r="I73" t="n">
+        <v>70</v>
+      </c>
+      <c r="J73" t="n">
+        <v>50</v>
+      </c>
+      <c r="K73" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="L73" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C74" t="n">
         <v>0.309898565932144</v>
@@ -2806,13 +3694,25 @@
       <c r="H74" t="n">
         <v>22.18394414358</v>
       </c>
+      <c r="I74" t="n">
+        <v>50</v>
+      </c>
+      <c r="J74" t="n">
+        <v>50</v>
+      </c>
+      <c r="K74" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="L74" t="n">
+        <v>59.25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C75" t="n">
         <v>0.286308868947417</v>
@@ -2832,13 +3732,25 @@
       <c r="H75" t="n">
         <v>22.0222009162355</v>
       </c>
+      <c r="I75" t="n">
+        <v>70</v>
+      </c>
+      <c r="J75" t="n">
+        <v>50</v>
+      </c>
+      <c r="K75" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="L75" t="n">
+        <v>60.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C76" t="n">
         <v>0.331891891891892</v>
@@ -2858,13 +3770,25 @@
       <c r="H76" t="n">
         <v>23.9551870848267</v>
       </c>
+      <c r="I76" t="n">
+        <v>50</v>
+      </c>
+      <c r="J76" t="n">
+        <v>70</v>
+      </c>
+      <c r="K76" t="n">
+        <v>26</v>
+      </c>
+      <c r="L76" t="n">
+        <v>65.75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C77" t="n">
         <v>0.264929905774976</v>
@@ -2884,13 +3808,25 @@
       <c r="H77" t="n">
         <v>20.8831315820932</v>
       </c>
+      <c r="I77" t="n">
+        <v>50</v>
+      </c>
+      <c r="J77" t="n">
+        <v>50</v>
+      </c>
+      <c r="K77" t="n">
+        <v>37</v>
+      </c>
+      <c r="L77" t="n">
+        <v>52.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C78" t="n">
         <v>0.247859195402299</v>
@@ -2910,13 +3846,25 @@
       <c r="H78" t="n">
         <v>20.8778257188779</v>
       </c>
+      <c r="I78" t="n">
+        <v>50</v>
+      </c>
+      <c r="J78" t="n">
+        <v>50</v>
+      </c>
+      <c r="K78" t="n">
+        <v>51.625</v>
+      </c>
+      <c r="L78" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C79" t="n">
         <v>0.276398747850624</v>
@@ -2936,13 +3884,25 @@
       <c r="H79" t="n">
         <v>22.3164049751254</v>
       </c>
+      <c r="I79" t="n">
+        <v>50</v>
+      </c>
+      <c r="J79" t="n">
+        <v>50</v>
+      </c>
+      <c r="K79" t="n">
+        <v>46</v>
+      </c>
+      <c r="L79" t="n">
+        <v>56.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C80" t="n">
         <v>0.336148582600196</v>
@@ -2962,13 +3922,25 @@
       <c r="H80" t="n">
         <v>21.0120133179497</v>
       </c>
+      <c r="I80" t="n">
+        <v>50</v>
+      </c>
+      <c r="J80" t="n">
+        <v>70</v>
+      </c>
+      <c r="K80" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="L80" t="n">
+        <v>66.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C81" t="n">
         <v>0.294602087410307</v>
@@ -2988,13 +3960,25 @@
       <c r="H81" t="n">
         <v>22.1025748582604</v>
       </c>
+      <c r="I81" t="n">
+        <v>70</v>
+      </c>
+      <c r="J81" t="n">
+        <v>50</v>
+      </c>
+      <c r="K81" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L81" t="n">
+        <v>60.25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C82" t="n">
         <v>0.316180471762841</v>
@@ -3014,13 +3998,25 @@
       <c r="H82" t="n">
         <v>20.7518848538072</v>
       </c>
+      <c r="I82" t="n">
+        <v>70</v>
+      </c>
+      <c r="J82" t="n">
+        <v>50</v>
+      </c>
+      <c r="K82" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="L82" t="n">
+        <v>60.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C83" t="n">
         <v>0.30171130952381</v>
@@ -3040,13 +4036,25 @@
       <c r="H83" t="n">
         <v>23.6299344567758</v>
       </c>
+      <c r="I83" t="n">
+        <v>70</v>
+      </c>
+      <c r="J83" t="n">
+        <v>70</v>
+      </c>
+      <c r="K83" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L83" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C84" t="n">
         <v>0.269247752720391</v>
@@ -3066,13 +4074,25 @@
       <c r="H84" t="n">
         <v>23.0918297132951</v>
       </c>
+      <c r="I84" t="n">
+        <v>50</v>
+      </c>
+      <c r="J84" t="n">
+        <v>70</v>
+      </c>
+      <c r="K84" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L84" t="n">
+        <v>63.25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C85" t="n">
         <v>0.39102535929328</v>
@@ -3092,13 +4112,25 @@
       <c r="H85" t="n">
         <v>21.8338287229901</v>
       </c>
+      <c r="I85" t="n">
+        <v>70</v>
+      </c>
+      <c r="J85" t="n">
+        <v>70</v>
+      </c>
+      <c r="K85" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L85" t="n">
+        <v>66.75</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C86" t="n">
         <v>0.245772946859903</v>
@@ -3118,13 +4150,25 @@
       <c r="H86" t="n">
         <v>21.4258156403945</v>
       </c>
+      <c r="I86" t="n">
+        <v>70</v>
+      </c>
+      <c r="J86" t="n">
+        <v>50</v>
+      </c>
+      <c r="K86" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="L86" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C87" t="n">
         <v>0.208648806057076</v>
@@ -3143,6 +4187,18 @@
       </c>
       <c r="H87" t="n">
         <v>21.7456292640457</v>
+      </c>
+      <c r="I87" t="n">
+        <v>70</v>
+      </c>
+      <c r="J87" t="n">
+        <v>70</v>
+      </c>
+      <c r="K87" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="L87" t="n">
+        <v>59.25</v>
       </c>
     </row>
   </sheetData>
